--- a/用例数据/沪A/公司债/公司债现券交易固定收益平台交易/测试结果.xlsx
+++ b/用例数据/沪A/公司债/公司债现券交易固定收益平台交易/测试结果.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C69C667F-FE0F-4764-8C11-DE4CBA3737EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EC78BC2-9D19-4224-9518-6183443D9B0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="stklist" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="300">
   <si>
     <t>RECKONINGTIME</t>
   </si>
@@ -746,12 +746,6 @@
     <t>0.00000000</t>
   </si>
   <si>
-    <t>30003038</t>
-  </si>
-  <si>
-    <t>20230403113144</t>
-  </si>
-  <si>
     <t>0000000797</t>
   </si>
   <si>
@@ -782,21 +776,12 @@
     <t>99.97600000</t>
   </si>
   <si>
-    <t>20230403000000</t>
-  </si>
-  <si>
     <t>2997111.880</t>
   </si>
   <si>
     <t>2999280.000</t>
   </si>
   <si>
-    <t>7805031950.370</t>
-  </si>
-  <si>
-    <t>50000</t>
-  </si>
-  <si>
     <t>3006.130</t>
   </si>
   <si>
@@ -818,39 +803,18 @@
     <t>3006130.270</t>
   </si>
   <si>
-    <t>000007160564</t>
-  </si>
-  <si>
-    <t>20230404000000</t>
-  </si>
-  <si>
     <t>0.0000000000</t>
   </si>
   <si>
     <t>611</t>
   </si>
   <si>
-    <t>30003039</t>
-  </si>
-  <si>
     <t>0000000510</t>
   </si>
   <si>
     <t>3003124.140</t>
   </si>
   <si>
-    <t>7808035074.510</t>
-  </si>
-  <si>
-    <t>20000</t>
-  </si>
-  <si>
-    <t>000007160565</t>
-  </si>
-  <si>
-    <t>30003036</t>
-  </si>
-  <si>
     <t>0000000515</t>
   </si>
   <si>
@@ -863,9 +827,6 @@
     <t>3999040.000</t>
   </si>
   <si>
-    <t>7806047020.360</t>
-  </si>
-  <si>
     <t>4008.170</t>
   </si>
   <si>
@@ -878,45 +839,88 @@
     <t>4008173.700</t>
   </si>
   <si>
-    <t>000007160562</t>
-  </si>
-  <si>
-    <t>30003037</t>
-  </si>
-  <si>
     <t>0000000559</t>
   </si>
   <si>
     <t>-4012181.870</t>
   </si>
   <si>
-    <t>7802034838.490</t>
-  </si>
-  <si>
-    <t>80000</t>
-  </si>
-  <si>
-    <t>000007160563</t>
-  </si>
-  <si>
-    <t>4008.170</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100.40475113</t>
-  </si>
-  <si>
-    <t>-24049.048</t>
-  </si>
-  <si>
-    <t>2004086.8500</t>
-  </si>
-  <si>
     <t>99.9760</t>
   </si>
   <si>
+    <t>30002497</t>
+  </si>
+  <si>
+    <t>20230504165143</t>
+  </si>
+  <si>
+    <t>000011721200</t>
+  </si>
+  <si>
+    <t>焦振鹏主股东</t>
+  </si>
+  <si>
+    <t>20230504000000</t>
+  </si>
+  <si>
+    <t>4196113559.920</t>
+  </si>
+  <si>
+    <t>000007300191</t>
+  </si>
+  <si>
+    <t>20230505000000</t>
+  </si>
+  <si>
+    <t>30002500</t>
+  </si>
+  <si>
+    <t>4199114397.450</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>000007300192</t>
+  </si>
+  <si>
+    <t>30002833</t>
+  </si>
+  <si>
+    <t>20230504165144</t>
+  </si>
+  <si>
+    <t>-941096482.860</t>
+  </si>
+  <si>
     <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000007300536</t>
+  </si>
+  <si>
+    <t>30002834</t>
+  </si>
+  <si>
+    <t>-938099370.980</t>
+  </si>
+  <si>
+    <t>000007300537</t>
+  </si>
+  <si>
+    <t>100.30454675</t>
+  </si>
+  <si>
+    <t>1002043.4200</t>
+  </si>
+  <si>
+    <t>-6012.263</t>
+  </si>
+  <si>
+    <t>100.50495550</t>
+  </si>
+  <si>
+    <t>-18036.785</t>
   </si>
 </sst>
 </file>
@@ -1242,10 +1246,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:CH2"/>
+  <dimension ref="A1:CH14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1515,46 +1519,46 @@
         <v>32</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>244</v>
+        <v>277</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>244</v>
+        <v>277</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>246</v>
+        <v>33</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>245</v>
+        <v>278</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>32</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>32</v>
@@ -1578,7 +1582,7 @@
         <v>98</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="X2" s="1" t="s">
         <v>99</v>
@@ -1590,7 +1594,7 @@
         <v>37</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
       <c r="AB2" s="1" t="s">
         <v>32</v>
@@ -1710,13 +1714,13 @@
         <v>32</v>
       </c>
       <c r="BO2" s="1" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="BP2" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="BQ2" s="1" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="BR2" s="1" t="s">
         <v>239</v>
@@ -1770,9 +1774,281 @@
         <v>32</v>
       </c>
     </row>
+    <row r="3" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AL3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AM3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AO3" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AP3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AQ3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AR3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AS3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AT3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AV3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AW3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AX3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AY3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AZ3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="BA3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="BB3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="BC3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="BD3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="BE3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="BF3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="BG3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="BH3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="BI3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="BJ3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="BK3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="BL3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="BM3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="BN3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="BO3" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="BP3" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="BQ3" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="BR3" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="BS3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="BT3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="BU3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="BV3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="BW3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="BX3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="BY3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="BZ3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="CA3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="CB3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="CC3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="CD3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="CE3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="CF3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="CG3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="CH3" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1780,14 +2056,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:EI24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BB1" workbookViewId="0">
-      <selection activeCell="BM6" sqref="BM6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2211,55 +2487,55 @@
     </row>
     <row r="2" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>241</v>
+        <v>275</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>98</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>242</v>
+        <v>276</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>242</v>
+        <v>276</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>243</v>
+        <v>272</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>160</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>244</v>
+        <v>277</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>245</v>
+        <v>278</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>101</v>
       </c>
       <c r="M2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>247</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>249</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>99</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="S2" s="1" t="s">
         <v>103</v>
@@ -2268,37 +2544,37 @@
         <v>35</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>253</v>
+        <v>279</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>254</v>
+        <v>273</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>256</v>
+        <v>280</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="AC2" s="1" t="s">
         <v>36</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="AF2" s="1" t="s">
         <v>36</v>
@@ -2319,7 +2595,7 @@
         <v>36</v>
       </c>
       <c r="AL2" s="1" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="AM2" s="1" t="s">
         <v>36</v>
@@ -2337,10 +2613,10 @@
         <v>99</v>
       </c>
       <c r="AR2" s="1" t="s">
-        <v>244</v>
+        <v>277</v>
       </c>
       <c r="AS2" s="1" t="s">
-        <v>245</v>
+        <v>278</v>
       </c>
       <c r="AT2" s="1" t="s">
         <v>100</v>
@@ -2349,7 +2625,7 @@
         <v>101</v>
       </c>
       <c r="AV2" s="1" t="s">
-        <v>261</v>
+        <v>38</v>
       </c>
       <c r="AX2" s="1" t="s">
         <v>37</v>
@@ -2376,13 +2652,13 @@
         <v>32</v>
       </c>
       <c r="BH2" s="1" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="BI2" s="1" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="BJ2" s="1" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="BL2" s="1" t="s">
         <v>36</v>
@@ -2391,7 +2667,7 @@
         <v>32</v>
       </c>
       <c r="BN2" s="1" t="s">
-        <v>297</v>
+        <v>163</v>
       </c>
       <c r="BP2" s="1" t="s">
         <v>39</v>
@@ -2439,13 +2715,13 @@
         <v>32</v>
       </c>
       <c r="CH2" s="1" t="s">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="CJ2" s="1" t="s">
         <v>39</v>
       </c>
       <c r="CK2" s="1" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="CL2" s="1" t="s">
         <v>102</v>
@@ -2478,7 +2754,7 @@
         <v>39</v>
       </c>
       <c r="DJ2" s="1" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="DK2" s="1" t="s">
         <v>36</v>
@@ -2538,7 +2814,7 @@
         <v>32</v>
       </c>
       <c r="EH2" s="1" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="EI2" s="1" t="s">
         <v>102</v>
@@ -2546,7 +2822,7 @@
     </row>
     <row r="3" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>165</v>
@@ -2555,46 +2831,46 @@
         <v>98</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>242</v>
+        <v>276</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>242</v>
+        <v>276</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>160</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>244</v>
+        <v>277</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>245</v>
+        <v>278</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>101</v>
       </c>
       <c r="M3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="O3" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>247</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>249</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>99</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="S3" s="1" t="s">
         <v>103</v>
@@ -2606,55 +2882,55 @@
         <v>41</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="W3" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="Z3" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="X3" s="1" t="s">
+      <c r="AA3" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD3" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="Y3" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="Z3" s="1" t="s">
+      <c r="AE3" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL3" s="1" t="s">
         <v>255</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="AE3" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="AF3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AG3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AI3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AJ3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AK3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL3" s="1" t="s">
-        <v>260</v>
       </c>
       <c r="AM3" s="1" t="s">
         <v>36</v>
@@ -2672,10 +2948,10 @@
         <v>99</v>
       </c>
       <c r="AR3" s="1" t="s">
-        <v>244</v>
+        <v>277</v>
       </c>
       <c r="AS3" s="1" t="s">
-        <v>245</v>
+        <v>278</v>
       </c>
       <c r="AT3" s="1" t="s">
         <v>100</v>
@@ -2684,7 +2960,7 @@
         <v>101</v>
       </c>
       <c r="AV3" s="1" t="s">
-        <v>261</v>
+        <v>38</v>
       </c>
       <c r="AX3" s="1" t="s">
         <v>37</v>
@@ -2711,13 +2987,13 @@
         <v>32</v>
       </c>
       <c r="BH3" s="1" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="BI3" s="1" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="BJ3" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="BL3" s="1" t="s">
         <v>36</v>
@@ -2726,7 +3002,7 @@
         <v>32</v>
       </c>
       <c r="BN3" s="1" t="s">
-        <v>297</v>
+        <v>163</v>
       </c>
       <c r="BP3" s="1" t="s">
         <v>39</v>
@@ -2774,13 +3050,13 @@
         <v>32</v>
       </c>
       <c r="CH3" s="1" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="CJ3" s="1" t="s">
         <v>39</v>
       </c>
       <c r="CK3" s="1" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="CL3" s="1" t="s">
         <v>102</v>
@@ -2813,7 +3089,7 @@
         <v>39</v>
       </c>
       <c r="DJ3" s="1" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="DK3" s="1" t="s">
         <v>36</v>
@@ -2873,7 +3149,7 @@
         <v>32</v>
       </c>
       <c r="EH3" s="1" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="EI3" s="1" t="s">
         <v>102</v>
@@ -2881,7 +3157,7 @@
     </row>
     <row r="4" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>159</v>
@@ -2890,46 +3166,46 @@
         <v>98</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>242</v>
+        <v>288</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>242</v>
+        <v>288</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>160</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>101</v>
       </c>
       <c r="M4" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="O4" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="P4" s="1" t="s">
         <v>247</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>249</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>99</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="S4" s="1" t="s">
         <v>103</v>
@@ -2941,34 +3217,34 @@
         <v>34</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>253</v>
+        <v>279</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="AC4" s="1" t="s">
         <v>36</v>
       </c>
       <c r="AD4" s="1" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="AE4" s="1" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="AF4" s="1" t="s">
         <v>36</v>
@@ -2989,7 +3265,7 @@
         <v>36</v>
       </c>
       <c r="AL4" s="1" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="AM4" s="1" t="s">
         <v>36</v>
@@ -3007,10 +3283,10 @@
         <v>99</v>
       </c>
       <c r="AR4" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AS4" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AT4" s="1" t="s">
         <v>100</v>
@@ -3019,7 +3295,7 @@
         <v>101</v>
       </c>
       <c r="AV4" s="1" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="AX4" s="1" t="s">
         <v>37</v>
@@ -3046,13 +3322,13 @@
         <v>32</v>
       </c>
       <c r="BH4" s="1" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="BI4" s="1" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="BJ4" s="1" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="BL4" s="1" t="s">
         <v>36</v>
@@ -3061,7 +3337,7 @@
         <v>32</v>
       </c>
       <c r="BN4" s="1" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="BP4" s="1" t="s">
         <v>39</v>
@@ -3109,13 +3385,13 @@
         <v>32</v>
       </c>
       <c r="CH4" s="1" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="CJ4" s="1" t="s">
         <v>39</v>
       </c>
       <c r="CK4" s="1" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="CL4" s="1" t="s">
         <v>102</v>
@@ -3148,7 +3424,7 @@
         <v>39</v>
       </c>
       <c r="DJ4" s="1" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="DK4" s="1" t="s">
         <v>36</v>
@@ -3208,7 +3484,7 @@
         <v>32</v>
       </c>
       <c r="EH4" s="1" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="EI4" s="1" t="s">
         <v>102</v>
@@ -3216,55 +3492,55 @@
     </row>
     <row r="5" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>98</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>242</v>
+        <v>288</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>242</v>
+        <v>288</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>287</v>
+        <v>241</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>160</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>101</v>
       </c>
       <c r="M5" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="O5" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="P5" s="1" t="s">
         <v>247</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>249</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>99</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="S5" s="1" t="s">
         <v>103</v>
@@ -3273,37 +3549,37 @@
         <v>35</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>277</v>
+        <v>249</v>
       </c>
       <c r="W5" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z5" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="X5" s="1" t="s">
+      <c r="AA5" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD5" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="Y5" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="Z5" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="AA5" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="AB5" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="AC5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD5" s="1" t="s">
-        <v>281</v>
-      </c>
       <c r="AE5" s="1" t="s">
-        <v>292</v>
+        <v>254</v>
       </c>
       <c r="AF5" s="1" t="s">
         <v>36</v>
@@ -3324,7 +3600,7 @@
         <v>36</v>
       </c>
       <c r="AL5" s="1" t="s">
-        <v>283</v>
+        <v>255</v>
       </c>
       <c r="AM5" s="1" t="s">
         <v>36</v>
@@ -3342,10 +3618,10 @@
         <v>99</v>
       </c>
       <c r="AR5" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AS5" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AT5" s="1" t="s">
         <v>100</v>
@@ -3354,7 +3630,7 @@
         <v>101</v>
       </c>
       <c r="AV5" s="1" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="AX5" s="1" t="s">
         <v>37</v>
@@ -3381,13 +3657,13 @@
         <v>32</v>
       </c>
       <c r="BH5" s="1" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="BI5" s="1" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="BJ5" s="1" t="s">
-        <v>284</v>
+        <v>259</v>
       </c>
       <c r="BL5" s="1" t="s">
         <v>36</v>
@@ -3396,7 +3672,7 @@
         <v>32</v>
       </c>
       <c r="BN5" s="1" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="BP5" s="1" t="s">
         <v>39</v>
@@ -3444,13 +3720,13 @@
         <v>32</v>
       </c>
       <c r="CH5" s="1" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="CJ5" s="1" t="s">
         <v>39</v>
       </c>
       <c r="CK5" s="1" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="CL5" s="1" t="s">
         <v>102</v>
@@ -3483,7 +3759,7 @@
         <v>39</v>
       </c>
       <c r="DJ5" s="1" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="DK5" s="1" t="s">
         <v>36</v>
@@ -3543,7 +3819,7 @@
         <v>32</v>
       </c>
       <c r="EH5" s="1" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="EI5" s="1" t="s">
         <v>102</v>
